--- a/data/pca/factorExposure/factorExposure_2019-01-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1011001933306616</v>
+        <v>0.06570871157904576</v>
       </c>
       <c r="C2">
-        <v>-0.009070679548455338</v>
+        <v>-0.03378960226216023</v>
       </c>
       <c r="D2">
-        <v>-0.07564333382550908</v>
+        <v>-0.01880517431418182</v>
       </c>
       <c r="E2">
-        <v>-0.01528960492332041</v>
+        <v>0.03817683020498939</v>
       </c>
       <c r="F2">
-        <v>-0.138285534165186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1363049044579593</v>
+      </c>
+      <c r="G2">
+        <v>0.05033334474902523</v>
+      </c>
+      <c r="H2">
+        <v>0.05774481914636648</v>
+      </c>
+      <c r="I2">
+        <v>-0.1109661786586927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2115531713913751</v>
+        <v>0.1531414261059516</v>
       </c>
       <c r="C3">
-        <v>0.1514350668600805</v>
+        <v>-0.1108835697952095</v>
       </c>
       <c r="D3">
-        <v>-0.09031323318685609</v>
+        <v>0.003974019421793242</v>
       </c>
       <c r="E3">
-        <v>0.006767484589186713</v>
+        <v>-0.02281606350591467</v>
       </c>
       <c r="F3">
-        <v>-0.3669822036996678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3964596493945132</v>
+      </c>
+      <c r="G3">
+        <v>0.2628491149635382</v>
+      </c>
+      <c r="H3">
+        <v>0.09399439392374238</v>
+      </c>
+      <c r="I3">
+        <v>-0.3621611680513543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09200201060220466</v>
+        <v>0.06913602522017846</v>
       </c>
       <c r="C4">
-        <v>0.03028382402398253</v>
+        <v>-0.05171075739118892</v>
       </c>
       <c r="D4">
-        <v>-0.06314542253937749</v>
+        <v>0.01518354900751367</v>
       </c>
       <c r="E4">
-        <v>0.03289858785140483</v>
+        <v>0.03833012486472814</v>
       </c>
       <c r="F4">
-        <v>-0.07473001372033201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0822830857976143</v>
+      </c>
+      <c r="G4">
+        <v>0.02389007601971449</v>
+      </c>
+      <c r="H4">
+        <v>0.04514219110887453</v>
+      </c>
+      <c r="I4">
+        <v>-0.0568568541393305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02580151104603781</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01132602207702716</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004171789642529559</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006054360991540659</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.007255742577791469</v>
+      </c>
+      <c r="G6">
+        <v>-0.02036362524166843</v>
+      </c>
+      <c r="H6">
+        <v>-0.01828089310454428</v>
+      </c>
+      <c r="I6">
+        <v>0.0003544447145297745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04259694070713943</v>
+        <v>0.03356326827760091</v>
       </c>
       <c r="C7">
-        <v>0.007168366251090696</v>
+        <v>-0.02070945203172449</v>
       </c>
       <c r="D7">
-        <v>-0.04820743352107852</v>
+        <v>0.03648769767488026</v>
       </c>
       <c r="E7">
-        <v>-0.002286776739445023</v>
+        <v>0.02661912840167595</v>
       </c>
       <c r="F7">
-        <v>-0.06461842069725976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05018853154202391</v>
+      </c>
+      <c r="G7">
+        <v>0.05134152455861524</v>
+      </c>
+      <c r="H7">
+        <v>-0.003710426999772108</v>
+      </c>
+      <c r="I7">
+        <v>-0.03694694169996793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05284614068945046</v>
+        <v>0.0246022563808805</v>
       </c>
       <c r="C8">
-        <v>0.0493453398906136</v>
+        <v>-0.05386657113311543</v>
       </c>
       <c r="D8">
-        <v>-0.04265039310315255</v>
+        <v>0.01152100732651701</v>
       </c>
       <c r="E8">
-        <v>0.02725398521038297</v>
+        <v>0.01693809038447408</v>
       </c>
       <c r="F8">
-        <v>-0.07379235063511402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07640370528915294</v>
+      </c>
+      <c r="G8">
+        <v>0.04412648625808845</v>
+      </c>
+      <c r="H8">
+        <v>0.03617991568550104</v>
+      </c>
+      <c r="I8">
+        <v>-0.06337328974330421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07619979314368366</v>
+        <v>0.05744909587770937</v>
       </c>
       <c r="C9">
-        <v>0.01996856102081923</v>
+        <v>-0.04387239681195342</v>
       </c>
       <c r="D9">
-        <v>-0.05976014581109669</v>
+        <v>0.01809851934331697</v>
       </c>
       <c r="E9">
-        <v>0.04557289534611937</v>
+        <v>0.03418546763356504</v>
       </c>
       <c r="F9">
-        <v>-0.05940780430207886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.08146764176048964</v>
+      </c>
+      <c r="G9">
+        <v>0.02367127123510651</v>
+      </c>
+      <c r="H9">
+        <v>0.04119182576894435</v>
+      </c>
+      <c r="I9">
+        <v>-0.03271145314792075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03392094335802314</v>
+        <v>0.04118609501047462</v>
       </c>
       <c r="C10">
-        <v>-0.1372422920781256</v>
+        <v>0.1638147962791249</v>
       </c>
       <c r="D10">
-        <v>0.08263376247181425</v>
+        <v>-0.009838394774742014</v>
       </c>
       <c r="E10">
-        <v>-0.03765081624958513</v>
+        <v>-0.026422258749233</v>
       </c>
       <c r="F10">
-        <v>-0.07839159008870286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06890648904917203</v>
+      </c>
+      <c r="G10">
+        <v>0.02333046659847121</v>
+      </c>
+      <c r="H10">
+        <v>0.03943682025333847</v>
+      </c>
+      <c r="I10">
+        <v>-0.03847770665459973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05621165193748422</v>
+        <v>0.0466524014386401</v>
       </c>
       <c r="C11">
-        <v>0.01670071394220477</v>
+        <v>-0.03403463836676686</v>
       </c>
       <c r="D11">
-        <v>-0.01756460177489031</v>
+        <v>-0.005780112433832303</v>
       </c>
       <c r="E11">
-        <v>-0.005937137876095695</v>
+        <v>0.007997509205832386</v>
       </c>
       <c r="F11">
-        <v>-0.04643240911866587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03984300082053023</v>
+      </c>
+      <c r="G11">
+        <v>0.001392522554488062</v>
+      </c>
+      <c r="H11">
+        <v>0.01191175238194694</v>
+      </c>
+      <c r="I11">
+        <v>-0.02989084666928406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04534006854716755</v>
+        <v>0.0426838577815501</v>
       </c>
       <c r="C12">
-        <v>0.0191918100060194</v>
+        <v>-0.03164214058341885</v>
       </c>
       <c r="D12">
-        <v>-0.01478491291749117</v>
+        <v>0.005723499195991871</v>
       </c>
       <c r="E12">
-        <v>0.01123693522908278</v>
+        <v>0.008805695991985659</v>
       </c>
       <c r="F12">
-        <v>-0.02922839982627396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01495055515088127</v>
+      </c>
+      <c r="G12">
+        <v>0.003233645722829555</v>
+      </c>
+      <c r="H12">
+        <v>0.004687787292731289</v>
+      </c>
+      <c r="I12">
+        <v>-0.0182875206030097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.05808060379685394</v>
+        <v>0.04107400131308681</v>
       </c>
       <c r="C13">
-        <v>0.02214686968483456</v>
+        <v>-0.02934164992133258</v>
       </c>
       <c r="D13">
-        <v>-0.03173782653915297</v>
+        <v>-0.01513292538074272</v>
       </c>
       <c r="E13">
-        <v>-0.02993699850411218</v>
+        <v>0.008185497862256308</v>
       </c>
       <c r="F13">
-        <v>-0.1120301956035081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1041885990357063</v>
+      </c>
+      <c r="G13">
+        <v>0.03257615073651549</v>
+      </c>
+      <c r="H13">
+        <v>0.03182003059413446</v>
+      </c>
+      <c r="I13">
+        <v>-0.06267246464386948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03290097618942231</v>
+        <v>0.02539729498490166</v>
       </c>
       <c r="C14">
-        <v>0.01442938212649131</v>
+        <v>-0.02441793062187399</v>
       </c>
       <c r="D14">
-        <v>-0.0422989692235267</v>
+        <v>0.005555016077124558</v>
       </c>
       <c r="E14">
-        <v>0.005059195537796995</v>
+        <v>0.02800291337983361</v>
       </c>
       <c r="F14">
-        <v>-0.02428179633828505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03787980001603498</v>
+      </c>
+      <c r="G14">
+        <v>0.05540461105363769</v>
+      </c>
+      <c r="H14">
+        <v>0.01353866812834552</v>
+      </c>
+      <c r="I14">
+        <v>-0.01676542744888657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04795147156001061</v>
+        <v>0.04077973176042808</v>
       </c>
       <c r="C16">
-        <v>0.02313261880740919</v>
+        <v>-0.03574650602283097</v>
       </c>
       <c r="D16">
-        <v>-0.01366863803113774</v>
+        <v>-0.0002721860464721938</v>
       </c>
       <c r="E16">
-        <v>-0.001195587244134005</v>
+        <v>0.005502197848470882</v>
       </c>
       <c r="F16">
-        <v>-0.03469514067211562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.034611592174438</v>
+      </c>
+      <c r="G16">
+        <v>0.007448497729123517</v>
+      </c>
+      <c r="H16">
+        <v>0.004844690143879681</v>
+      </c>
+      <c r="I16">
+        <v>-0.03094709784550292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06366428973411466</v>
+        <v>0.05060256258942268</v>
       </c>
       <c r="C19">
-        <v>0.04319478742331325</v>
+        <v>-0.04721683318626236</v>
       </c>
       <c r="D19">
-        <v>-0.03338988772738065</v>
+        <v>-0.003034397243428443</v>
       </c>
       <c r="E19">
-        <v>-0.001251162570861233</v>
+        <v>0.01591455712347301</v>
       </c>
       <c r="F19">
-        <v>-0.0901463404601438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09618525493211488</v>
+      </c>
+      <c r="G19">
+        <v>0.05278970319688366</v>
+      </c>
+      <c r="H19">
+        <v>0.02094071724902864</v>
+      </c>
+      <c r="I19">
+        <v>-0.06914803975582026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03076967525898855</v>
+        <v>0.01830907284817349</v>
       </c>
       <c r="C20">
-        <v>0.02369744862925133</v>
+        <v>-0.03048731006811626</v>
       </c>
       <c r="D20">
-        <v>-0.0500115060763514</v>
+        <v>0.005381761802988033</v>
       </c>
       <c r="E20">
-        <v>0.01996226260962961</v>
+        <v>0.02085208382810275</v>
       </c>
       <c r="F20">
-        <v>-0.07027322152115148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06691737205024077</v>
+      </c>
+      <c r="G20">
+        <v>0.06044634608340511</v>
+      </c>
+      <c r="H20">
+        <v>0.01055836623903572</v>
+      </c>
+      <c r="I20">
+        <v>-0.07423161616788759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03174671056507245</v>
+        <v>0.0316960283071234</v>
       </c>
       <c r="C21">
-        <v>0.03511006144719096</v>
+        <v>-0.02962665823802778</v>
       </c>
       <c r="D21">
-        <v>-0.02663485343579797</v>
+        <v>0.01138192401185773</v>
       </c>
       <c r="E21">
-        <v>-0.005804815640493631</v>
+        <v>0.004793066108224269</v>
       </c>
       <c r="F21">
-        <v>-0.09988408532658491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07748140851063678</v>
+      </c>
+      <c r="G21">
+        <v>0.01488760019247402</v>
+      </c>
+      <c r="H21">
+        <v>0.04957984707584789</v>
+      </c>
+      <c r="I21">
+        <v>-0.00232987118994455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04839134930912194</v>
+        <v>0.03975490862418593</v>
       </c>
       <c r="C24">
-        <v>0.02070823559419107</v>
+        <v>-0.0318821346885174</v>
       </c>
       <c r="D24">
-        <v>-0.01966767721119566</v>
+        <v>-4.881187569905714e-05</v>
       </c>
       <c r="E24">
-        <v>0.002765545377739043</v>
+        <v>0.008139247917811754</v>
       </c>
       <c r="F24">
-        <v>-0.0450169058241708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03855088477787857</v>
+      </c>
+      <c r="G24">
+        <v>0.001853508258171831</v>
+      </c>
+      <c r="H24">
+        <v>0.007148251132532538</v>
+      </c>
+      <c r="I24">
+        <v>-0.03275151578084342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0489216416018395</v>
+        <v>0.04608394117590606</v>
       </c>
       <c r="C25">
-        <v>0.01526016962353883</v>
+        <v>-0.02812079630948299</v>
       </c>
       <c r="D25">
-        <v>-0.01721152977568844</v>
+        <v>-0.0006931126784722995</v>
       </c>
       <c r="E25">
-        <v>0.002549730491156366</v>
+        <v>0.007964586285159132</v>
       </c>
       <c r="F25">
-        <v>-0.04123811212666426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04400750415537335</v>
+      </c>
+      <c r="G25">
+        <v>-0.001289783547472015</v>
+      </c>
+      <c r="H25">
+        <v>0.01179091616217343</v>
+      </c>
+      <c r="I25">
+        <v>-0.02248827770771711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02676409343482928</v>
+        <v>0.01494699191936676</v>
       </c>
       <c r="C26">
-        <v>0.02944045667923486</v>
+        <v>-0.0309136044519769</v>
       </c>
       <c r="D26">
-        <v>-0.03243417873637383</v>
+        <v>-0.004535551910171924</v>
       </c>
       <c r="E26">
-        <v>-0.01795566799124526</v>
+        <v>0.001684958449001461</v>
       </c>
       <c r="F26">
-        <v>-0.03357687044208944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04453763923017842</v>
+      </c>
+      <c r="G26">
+        <v>0.03174037480828978</v>
+      </c>
+      <c r="H26">
+        <v>0.01161222039732709</v>
+      </c>
+      <c r="I26">
+        <v>-0.03122560049941534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1172378658098207</v>
+        <v>0.06812074594494785</v>
       </c>
       <c r="C27">
-        <v>0.01296786893206629</v>
+        <v>-0.02562685698411923</v>
       </c>
       <c r="D27">
-        <v>-0.04685802356668106</v>
+        <v>0.003463729924855646</v>
       </c>
       <c r="E27">
-        <v>0.02465416337278054</v>
+        <v>0.02952529418785415</v>
       </c>
       <c r="F27">
-        <v>-0.07635916863472596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06359840839790493</v>
+      </c>
+      <c r="G27">
+        <v>0.0229452903916334</v>
+      </c>
+      <c r="H27">
+        <v>0.02516901051719046</v>
+      </c>
+      <c r="I27">
+        <v>-0.03600791225020725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.03629834345541243</v>
+        <v>0.05598697708014069</v>
       </c>
       <c r="C28">
-        <v>-0.2061030028990754</v>
+        <v>0.2495670792859109</v>
       </c>
       <c r="D28">
-        <v>0.1400793813056826</v>
+        <v>-0.005591728542408585</v>
       </c>
       <c r="E28">
-        <v>-0.03642356807321405</v>
+        <v>-0.04125954506997484</v>
       </c>
       <c r="F28">
-        <v>-0.0549985049259419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05763184806195912</v>
+      </c>
+      <c r="G28">
+        <v>0.0407834618818183</v>
+      </c>
+      <c r="H28">
+        <v>0.04047791996782832</v>
+      </c>
+      <c r="I28">
+        <v>-0.06509273963066627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0304805549804207</v>
+        <v>0.02327806493461267</v>
       </c>
       <c r="C29">
-        <v>0.01463670256272982</v>
+        <v>-0.02273005876969031</v>
       </c>
       <c r="D29">
-        <v>-0.03991706168489587</v>
+        <v>0.008815393211166266</v>
       </c>
       <c r="E29">
-        <v>0.01655639149860859</v>
+        <v>0.02995161481150665</v>
       </c>
       <c r="F29">
-        <v>-0.02258371314629592</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03430990022047392</v>
+      </c>
+      <c r="G29">
+        <v>0.05473996435537178</v>
+      </c>
+      <c r="H29">
+        <v>0.01769919219347303</v>
+      </c>
+      <c r="I29">
+        <v>-0.001720585225061925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.110684433212777</v>
+        <v>0.08711473224871896</v>
       </c>
       <c r="C30">
-        <v>0.008956018432103386</v>
+        <v>-0.0540319479817636</v>
       </c>
       <c r="D30">
-        <v>-0.06050818711714118</v>
+        <v>-0.03855658136298211</v>
       </c>
       <c r="E30">
-        <v>-0.003273958077540264</v>
+        <v>0.03337290556672356</v>
       </c>
       <c r="F30">
-        <v>-0.1078898929680392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1074210033562985</v>
+      </c>
+      <c r="G30">
+        <v>0.006447361883951635</v>
+      </c>
+      <c r="H30">
+        <v>-0.007792408739102676</v>
+      </c>
+      <c r="I30">
+        <v>-0.01951021328132666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06780096449555099</v>
+        <v>0.06130623746260576</v>
       </c>
       <c r="C31">
-        <v>0.0114323639196118</v>
+        <v>-0.02350059556709908</v>
       </c>
       <c r="D31">
-        <v>-0.03347489865713148</v>
+        <v>-0.01074915644918389</v>
       </c>
       <c r="E31">
-        <v>-0.03379366175943718</v>
+        <v>0.02295590232019649</v>
       </c>
       <c r="F31">
-        <v>0.03751588012922353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005662347016100229</v>
+      </c>
+      <c r="G31">
+        <v>0.04737442930173536</v>
+      </c>
+      <c r="H31">
+        <v>0.03714369445267268</v>
+      </c>
+      <c r="I31">
+        <v>-0.01014049483703084</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06647882125299373</v>
+        <v>0.03926660107739713</v>
       </c>
       <c r="C32">
-        <v>0.03079760363903555</v>
+        <v>-0.04598536671349968</v>
       </c>
       <c r="D32">
-        <v>-0.04416245416868678</v>
+        <v>0.01624493747312539</v>
       </c>
       <c r="E32">
-        <v>0.01482945157571694</v>
+        <v>0.03219393286289718</v>
       </c>
       <c r="F32">
-        <v>-0.09482380229267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08335864504956818</v>
+      </c>
+      <c r="G32">
+        <v>0.03330021133994583</v>
+      </c>
+      <c r="H32">
+        <v>0.02601927770165214</v>
+      </c>
+      <c r="I32">
+        <v>-0.05439746865958361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06432841354986539</v>
+        <v>0.05171202785105413</v>
       </c>
       <c r="C33">
-        <v>0.04964652143670897</v>
+        <v>-0.05585797043032838</v>
       </c>
       <c r="D33">
-        <v>-0.05288193646936201</v>
+        <v>-0.01915253372916928</v>
       </c>
       <c r="E33">
-        <v>-0.01040805686367473</v>
+        <v>0.006834162030944647</v>
       </c>
       <c r="F33">
-        <v>-0.07116638590309782</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07589072148035925</v>
+      </c>
+      <c r="G33">
+        <v>0.04238416972461311</v>
+      </c>
+      <c r="H33">
+        <v>0.0354962792354727</v>
+      </c>
+      <c r="I33">
+        <v>-0.03623691386823187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04786502953373462</v>
+        <v>0.0412595072183538</v>
       </c>
       <c r="C34">
-        <v>0.0167609478664842</v>
+        <v>-0.03611305652520313</v>
       </c>
       <c r="D34">
-        <v>-0.02391083309237637</v>
+        <v>0.004617490262658728</v>
       </c>
       <c r="E34">
-        <v>0.00382428244010159</v>
+        <v>0.01626292477874567</v>
       </c>
       <c r="F34">
-        <v>-0.03060410220659293</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03536745447611677</v>
+      </c>
+      <c r="G34">
+        <v>0.003230691099467542</v>
+      </c>
+      <c r="H34">
+        <v>0.00775581672994716</v>
+      </c>
+      <c r="I34">
+        <v>-0.02571978799510929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01960880078224913</v>
+        <v>0.01659980957084178</v>
       </c>
       <c r="C36">
-        <v>0.002144879604738737</v>
+        <v>-0.006336688063596509</v>
       </c>
       <c r="D36">
-        <v>-0.01450337008772763</v>
+        <v>0.003473601558337393</v>
       </c>
       <c r="E36">
-        <v>0.003938866169456977</v>
+        <v>0.01068061093234271</v>
       </c>
       <c r="F36">
-        <v>-0.01607517140888566</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02451849001567092</v>
+      </c>
+      <c r="G36">
+        <v>0.03620524338377939</v>
+      </c>
+      <c r="H36">
+        <v>0.02260269452194724</v>
+      </c>
+      <c r="I36">
+        <v>0.01063752232619722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04295463844150252</v>
+        <v>0.03516934727378477</v>
       </c>
       <c r="C38">
-        <v>0.006709937152069373</v>
+        <v>-0.01549335699760476</v>
       </c>
       <c r="D38">
-        <v>-0.01820965062791144</v>
+        <v>0.003525132374975695</v>
       </c>
       <c r="E38">
-        <v>0.01789995052665568</v>
+        <v>0.008046332494750084</v>
       </c>
       <c r="F38">
-        <v>-0.02281599640429129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04854998539584891</v>
+      </c>
+      <c r="G38">
+        <v>0.02498246042871287</v>
+      </c>
+      <c r="H38">
+        <v>0.02767198950055399</v>
+      </c>
+      <c r="I38">
+        <v>0.01133470293491607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.06952808839224221</v>
+        <v>0.0515004523486857</v>
       </c>
       <c r="C39">
-        <v>0.01756428565216129</v>
+        <v>-0.0499646457874668</v>
       </c>
       <c r="D39">
-        <v>-0.02664168737724211</v>
+        <v>-0.005099163101503779</v>
       </c>
       <c r="E39">
-        <v>-0.01320873775272145</v>
+        <v>0.0180071501327599</v>
       </c>
       <c r="F39">
-        <v>-0.04049059911907403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05677685367118668</v>
+      </c>
+      <c r="G39">
+        <v>-0.004013767085999107</v>
+      </c>
+      <c r="H39">
+        <v>0.02025789813602315</v>
+      </c>
+      <c r="I39">
+        <v>-0.008757671469091875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07249680260194322</v>
+        <v>0.05410894532011028</v>
       </c>
       <c r="C40">
-        <v>0.01237393618269816</v>
+        <v>-0.04549225059987717</v>
       </c>
       <c r="D40">
-        <v>-0.06444964544247188</v>
+        <v>-0.02143838115914055</v>
       </c>
       <c r="E40">
-        <v>-0.03433733977378308</v>
+        <v>0.02376775190807217</v>
       </c>
       <c r="F40">
-        <v>-0.1109049304541896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09706578049904119</v>
+      </c>
+      <c r="G40">
+        <v>0.03172963234594493</v>
+      </c>
+      <c r="H40">
+        <v>0.03183208925189592</v>
+      </c>
+      <c r="I40">
+        <v>-0.1124941554757893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.003430689818158669</v>
+        <v>0.005057517532548526</v>
       </c>
       <c r="C41">
-        <v>0.01818751945761755</v>
+        <v>-0.01196922069557315</v>
       </c>
       <c r="D41">
-        <v>-0.03410668124455573</v>
+        <v>-0.0007537227879592249</v>
       </c>
       <c r="E41">
-        <v>0.006703499916806072</v>
+        <v>0.0118732810044909</v>
       </c>
       <c r="F41">
-        <v>0.008026841087179309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0104286901457186</v>
+      </c>
+      <c r="G41">
+        <v>0.04706600143665769</v>
+      </c>
+      <c r="H41">
+        <v>0.0396707183932543</v>
+      </c>
+      <c r="I41">
+        <v>-0.009664169497296893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.185345527512528</v>
+        <v>0.208505845776045</v>
       </c>
       <c r="C42">
-        <v>0.6269425496351456</v>
+        <v>-0.2242794800214195</v>
       </c>
       <c r="D42">
-        <v>0.6712834636212807</v>
+        <v>-0.04948950963500746</v>
       </c>
       <c r="E42">
-        <v>-0.2610383360355998</v>
+        <v>-0.9175462092331483</v>
       </c>
       <c r="F42">
-        <v>0.05412399915055039</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1672528708505252</v>
+      </c>
+      <c r="G42">
+        <v>-0.008560587241114815</v>
+      </c>
+      <c r="H42">
+        <v>0.000167422033460005</v>
+      </c>
+      <c r="I42">
+        <v>-0.0615160062824938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006072877456792592</v>
+        <v>0.008444599019305353</v>
       </c>
       <c r="C43">
-        <v>0.02181476233794242</v>
+        <v>-0.01384831379564537</v>
       </c>
       <c r="D43">
-        <v>-0.03511231040923473</v>
+        <v>-0.00325180460352975</v>
       </c>
       <c r="E43">
-        <v>0.001897906369358481</v>
+        <v>0.01041923665598005</v>
       </c>
       <c r="F43">
-        <v>-0.02376519503512195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02504612625238614</v>
+      </c>
+      <c r="G43">
+        <v>0.03551698336612658</v>
+      </c>
+      <c r="H43">
+        <v>0.0232836927739358</v>
+      </c>
+      <c r="I43">
+        <v>-0.01914403132737062</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04265554997435828</v>
+        <v>0.02708421922929588</v>
       </c>
       <c r="C44">
-        <v>0.03947289565673228</v>
+        <v>-0.04310534846411669</v>
       </c>
       <c r="D44">
-        <v>-0.05350628989783861</v>
+        <v>0.001561685489239587</v>
       </c>
       <c r="E44">
-        <v>-0.004277433394608049</v>
+        <v>0.01275532039302855</v>
       </c>
       <c r="F44">
-        <v>-0.117765885152408</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1203389884534503</v>
+      </c>
+      <c r="G44">
+        <v>0.08596618553369487</v>
+      </c>
+      <c r="H44">
+        <v>0.05432490465129566</v>
+      </c>
+      <c r="I44">
+        <v>-0.05575206766328593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03324663875931264</v>
+        <v>0.02606280957869071</v>
       </c>
       <c r="C46">
-        <v>0.02027361016955131</v>
+        <v>-0.03826959670343171</v>
       </c>
       <c r="D46">
-        <v>-0.04233050733950687</v>
+        <v>-0.004148655326298318</v>
       </c>
       <c r="E46">
-        <v>7.68226780520422e-06</v>
+        <v>0.03087694517881408</v>
       </c>
       <c r="F46">
-        <v>-0.01986426720050431</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04671186735039125</v>
+      </c>
+      <c r="G46">
+        <v>0.05655088799800877</v>
+      </c>
+      <c r="H46">
+        <v>0.01925988498168602</v>
+      </c>
+      <c r="I46">
+        <v>-0.00821824584650635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09336979270213883</v>
+        <v>0.08698802947082056</v>
       </c>
       <c r="C47">
-        <v>0.009933499518371913</v>
+        <v>-0.0235397458540897</v>
       </c>
       <c r="D47">
-        <v>-0.03426233705464062</v>
+        <v>-0.004804663896138062</v>
       </c>
       <c r="E47">
-        <v>0.003036976543964815</v>
+        <v>0.02751272140413672</v>
       </c>
       <c r="F47">
-        <v>0.02815919546578668</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01851828376971569</v>
+      </c>
+      <c r="G47">
+        <v>0.06504133053055318</v>
+      </c>
+      <c r="H47">
+        <v>0.02995623180145751</v>
+      </c>
+      <c r="I47">
+        <v>-0.03152780837610968</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02140976257922229</v>
+        <v>0.02115619919742544</v>
       </c>
       <c r="C48">
-        <v>0.01555038555661225</v>
+        <v>-0.01923801436358587</v>
       </c>
       <c r="D48">
-        <v>-0.03140823393605897</v>
+        <v>0.0007539255771319454</v>
       </c>
       <c r="E48">
-        <v>0.001342455770045452</v>
+        <v>0.01445686382484368</v>
       </c>
       <c r="F48">
-        <v>-0.02403920319544495</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02787498636405783</v>
+      </c>
+      <c r="G48">
+        <v>0.02387421476240943</v>
+      </c>
+      <c r="H48">
+        <v>0.01680475330201971</v>
+      </c>
+      <c r="I48">
+        <v>-0.00903181065112544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09154413503513675</v>
+        <v>0.08775199225633794</v>
       </c>
       <c r="C50">
-        <v>0.02666407547708867</v>
+        <v>-0.04356149981980809</v>
       </c>
       <c r="D50">
-        <v>-0.04023719100842871</v>
+        <v>0.009405045349202192</v>
       </c>
       <c r="E50">
-        <v>-0.006751258668887</v>
+        <v>0.02353859181090352</v>
       </c>
       <c r="F50">
-        <v>0.03280334894991008</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01197146208786477</v>
+      </c>
+      <c r="G50">
+        <v>0.0407113604903258</v>
+      </c>
+      <c r="H50">
+        <v>-0.007752122178212789</v>
+      </c>
+      <c r="I50">
+        <v>0.005145324346529443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05559872983652592</v>
+        <v>0.03869339724352552</v>
       </c>
       <c r="C51">
-        <v>-0.01688355430466705</v>
+        <v>0.005116304139829174</v>
       </c>
       <c r="D51">
-        <v>-0.02176579654076124</v>
+        <v>-0.01153297880542144</v>
       </c>
       <c r="E51">
-        <v>-0.03287962331719943</v>
+        <v>0.01200082570016058</v>
       </c>
       <c r="F51">
-        <v>-0.05494950876026845</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.08607660425760616</v>
+      </c>
+      <c r="G51">
+        <v>0.06452147540497276</v>
+      </c>
+      <c r="H51">
+        <v>0.05379911460029038</v>
+      </c>
+      <c r="I51">
+        <v>-0.03200660052593962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1329178689120792</v>
+        <v>0.1234709760684008</v>
       </c>
       <c r="C53">
-        <v>0.005603896356820674</v>
+        <v>-0.04244637962584585</v>
       </c>
       <c r="D53">
-        <v>-0.06126926701349079</v>
+        <v>-0.005806211045594576</v>
       </c>
       <c r="E53">
-        <v>-0.005039222139733988</v>
+        <v>0.0520693339378467</v>
       </c>
       <c r="F53">
-        <v>0.06074228901377394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04622497307022468</v>
+      </c>
+      <c r="G53">
+        <v>0.01292034801753326</v>
+      </c>
+      <c r="H53">
+        <v>0.02764097403910691</v>
+      </c>
+      <c r="I53">
+        <v>-0.04086162305456478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02690337885983089</v>
+        <v>0.02609012766649383</v>
       </c>
       <c r="C54">
-        <v>-0.0004628606973695608</v>
+        <v>-0.008460258081509403</v>
       </c>
       <c r="D54">
-        <v>-0.03482547204380688</v>
+        <v>0.004522664443536094</v>
       </c>
       <c r="E54">
-        <v>0.009531810436091664</v>
+        <v>0.03088069452517529</v>
       </c>
       <c r="F54">
-        <v>-0.03002416264254137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.033197967647687</v>
+      </c>
+      <c r="G54">
+        <v>0.05449315862023432</v>
+      </c>
+      <c r="H54">
+        <v>0.03102024756075656</v>
+      </c>
+      <c r="I54">
+        <v>-0.0005007940585257879</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1062908180381039</v>
+        <v>0.09742465565895903</v>
       </c>
       <c r="C55">
-        <v>-0.002870818474044829</v>
+        <v>-0.03609058515110093</v>
       </c>
       <c r="D55">
-        <v>-0.02785053149913282</v>
+        <v>0.01206983856717995</v>
       </c>
       <c r="E55">
-        <v>0.03993726971908577</v>
+        <v>0.03607210828667484</v>
       </c>
       <c r="F55">
-        <v>0.02621380444880016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03632691960392352</v>
+      </c>
+      <c r="G55">
+        <v>0.02894713710407129</v>
+      </c>
+      <c r="H55">
+        <v>-0.01019309593920982</v>
+      </c>
+      <c r="I55">
+        <v>-0.01948342609941642</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1695975728436424</v>
+        <v>0.1644880106796809</v>
       </c>
       <c r="C56">
-        <v>-0.04693259940915997</v>
+        <v>-0.0299272121170772</v>
       </c>
       <c r="D56">
-        <v>-0.07311801310110232</v>
+        <v>-0.002814728210032661</v>
       </c>
       <c r="E56">
-        <v>0.02758325189292739</v>
+        <v>0.08666501844154205</v>
       </c>
       <c r="F56">
-        <v>0.102568597449718</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.08938747198392578</v>
+      </c>
+      <c r="G56">
+        <v>-0.02933353417403486</v>
+      </c>
+      <c r="H56">
+        <v>-0.01241268381628778</v>
+      </c>
+      <c r="I56">
+        <v>-0.04123166843495875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.07525542922156968</v>
+        <v>0.06032409304746174</v>
       </c>
       <c r="C57">
-        <v>0.01650358230646322</v>
+        <v>-0.02934692791973894</v>
       </c>
       <c r="D57">
-        <v>-0.04082581232737165</v>
+        <v>-0.02091179133406257</v>
       </c>
       <c r="E57">
-        <v>-0.02917522011254479</v>
+        <v>0.004421236841813342</v>
       </c>
       <c r="F57">
-        <v>-0.05376623757794441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.07040585873897148</v>
+      </c>
+      <c r="G57">
+        <v>0.0197008920895901</v>
+      </c>
+      <c r="H57">
+        <v>0.01490723537856615</v>
+      </c>
+      <c r="I57">
+        <v>-0.02224146456761394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2044794959348784</v>
+        <v>0.2068281318315236</v>
       </c>
       <c r="C58">
-        <v>0.05892784713297804</v>
+        <v>-0.1171949200472683</v>
       </c>
       <c r="D58">
-        <v>-0.05828400096995194</v>
+        <v>-0.09456269829503743</v>
       </c>
       <c r="E58">
-        <v>-0.05166788018811906</v>
+        <v>-0.03532320270614926</v>
       </c>
       <c r="F58">
-        <v>-0.1394216383727025</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2898236222407987</v>
+      </c>
+      <c r="G58">
+        <v>0.3666795838606269</v>
+      </c>
+      <c r="H58">
+        <v>-0.3267501240443466</v>
+      </c>
+      <c r="I58">
+        <v>0.7061844120045263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.03377530612266415</v>
+        <v>0.05539676605118231</v>
       </c>
       <c r="C59">
-        <v>-0.1762651855678012</v>
+        <v>0.2050311934689207</v>
       </c>
       <c r="D59">
-        <v>0.08948376194529842</v>
+        <v>-0.02076324855451212</v>
       </c>
       <c r="E59">
-        <v>-0.02678911032102559</v>
+        <v>-0.01010089869025933</v>
       </c>
       <c r="F59">
-        <v>-0.05456570333867891</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.0698198955798776</v>
+      </c>
+      <c r="G59">
+        <v>-0.004298920961803379</v>
+      </c>
+      <c r="H59">
+        <v>0.01480767635038001</v>
+      </c>
+      <c r="I59">
+        <v>-0.01036570799260323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1807122080392237</v>
+        <v>0.1899787293004455</v>
       </c>
       <c r="C60">
-        <v>-0.07686653162402685</v>
+        <v>0.04914002609411314</v>
       </c>
       <c r="D60">
-        <v>-0.008937684662765389</v>
+        <v>-0.05040685784703817</v>
       </c>
       <c r="E60">
-        <v>-0.07210988840974182</v>
+        <v>0.01068793290269134</v>
       </c>
       <c r="F60">
-        <v>-0.1775928053617193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.19794272502645</v>
+      </c>
+      <c r="G60">
+        <v>-0.3446097652619368</v>
+      </c>
+      <c r="H60">
+        <v>0.002482250448475005</v>
+      </c>
+      <c r="I60">
+        <v>0.01140704620375141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03964192823635686</v>
+        <v>0.038038899421554</v>
       </c>
       <c r="C61">
-        <v>0.01329935363569201</v>
+        <v>-0.0342505863171703</v>
       </c>
       <c r="D61">
-        <v>-0.01358374368110252</v>
+        <v>0.001959601856428893</v>
       </c>
       <c r="E61">
-        <v>0.005055372473017144</v>
+        <v>0.01131898232150394</v>
       </c>
       <c r="F61">
-        <v>-0.03392872242308826</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03673079940575362</v>
+      </c>
+      <c r="G61">
+        <v>-0.008477426758959015</v>
+      </c>
+      <c r="H61">
+        <v>0.00988898026786819</v>
+      </c>
+      <c r="I61">
+        <v>0.002813234890222803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03765425329382575</v>
+        <v>0.02873027427037995</v>
       </c>
       <c r="C63">
-        <v>0.009016451015252171</v>
+        <v>-0.02434539174676048</v>
       </c>
       <c r="D63">
-        <v>-0.02933217678365393</v>
+        <v>-0.0005899110106291432</v>
       </c>
       <c r="E63">
-        <v>-0.002401822544210208</v>
+        <v>0.017498780117569</v>
       </c>
       <c r="F63">
-        <v>-0.0391235071072115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03039421363338784</v>
+      </c>
+      <c r="G63">
+        <v>0.05081581040883097</v>
+      </c>
+      <c r="H63">
+        <v>0.002566809636134829</v>
+      </c>
+      <c r="I63">
+        <v>-0.03025819670083331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05975794112450458</v>
+        <v>0.05591788074391022</v>
       </c>
       <c r="C64">
-        <v>0.02511680774630425</v>
+        <v>-0.03639238675205996</v>
       </c>
       <c r="D64">
-        <v>-0.03402497093904246</v>
+        <v>0.01053192255131223</v>
       </c>
       <c r="E64">
-        <v>0.03086718254738694</v>
+        <v>0.01967663160082561</v>
       </c>
       <c r="F64">
-        <v>-0.03537638519507008</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03956634518461127</v>
+      </c>
+      <c r="G64">
+        <v>0.02798263415393538</v>
+      </c>
+      <c r="H64">
+        <v>0.05800303034772677</v>
+      </c>
+      <c r="I64">
+        <v>-0.03676917187410307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02849817954784744</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01144041909169414</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.00458732772854384</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00669828245829463</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.003696210199174839</v>
+      </c>
+      <c r="G65">
+        <v>-0.02508319796087556</v>
+      </c>
+      <c r="H65">
+        <v>-0.01698670789453672</v>
+      </c>
+      <c r="I65">
+        <v>-0.0001758610109629257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.07438199660268313</v>
+        <v>0.0642696280264792</v>
       </c>
       <c r="C66">
-        <v>0.0210346932484731</v>
+        <v>-0.05939084126087752</v>
       </c>
       <c r="D66">
-        <v>-0.056011741173152</v>
+        <v>-0.01248287451163076</v>
       </c>
       <c r="E66">
-        <v>0.002255495446333114</v>
+        <v>0.04401667524113374</v>
       </c>
       <c r="F66">
-        <v>-0.07326570605828331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06842497255216774</v>
+      </c>
+      <c r="G66">
+        <v>-0.009051918578584376</v>
+      </c>
+      <c r="H66">
+        <v>0.006080448986854742</v>
+      </c>
+      <c r="I66">
+        <v>-0.04855938271115107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05226247193390929</v>
+        <v>0.04836161650242244</v>
       </c>
       <c r="C67">
-        <v>-0.01435390578780114</v>
+        <v>0.003800203770005849</v>
       </c>
       <c r="D67">
-        <v>-9.082414011540056e-05</v>
+        <v>-0.002157257730544824</v>
       </c>
       <c r="E67">
-        <v>0.00541023157392796</v>
+        <v>0.007205287262764043</v>
       </c>
       <c r="F67">
-        <v>-0.01789162362706767</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03442843179424274</v>
+      </c>
+      <c r="G67">
+        <v>0.003155471210560683</v>
+      </c>
+      <c r="H67">
+        <v>0.04043635666011332</v>
+      </c>
+      <c r="I67">
+        <v>0.02659504642416677</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.0549700932685871</v>
+        <v>0.06549371211021027</v>
       </c>
       <c r="C68">
-        <v>-0.2053353050133361</v>
+        <v>0.2393182060951279</v>
       </c>
       <c r="D68">
-        <v>0.1351823931210338</v>
+        <v>-0.01912079572933545</v>
       </c>
       <c r="E68">
-        <v>-0.0364102289620979</v>
+        <v>-0.02964078737739934</v>
       </c>
       <c r="F68">
-        <v>-0.06292019803408341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05315123890894274</v>
+      </c>
+      <c r="G68">
+        <v>0.0180057261079113</v>
+      </c>
+      <c r="H68">
+        <v>-0.00469571848827805</v>
+      </c>
+      <c r="I68">
+        <v>-0.02571154110802697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07521260274755739</v>
+        <v>0.06975171142895964</v>
       </c>
       <c r="C69">
-        <v>-0.003301187173365035</v>
+        <v>-0.02068743269073315</v>
       </c>
       <c r="D69">
-        <v>-0.02864557572822482</v>
+        <v>-0.006417258286721367</v>
       </c>
       <c r="E69">
-        <v>0.0003480614744418142</v>
+        <v>0.03056446833772207</v>
       </c>
       <c r="F69">
-        <v>0.01416400556156103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.003406643020369647</v>
+      </c>
+      <c r="G69">
+        <v>0.03990242043027666</v>
+      </c>
+      <c r="H69">
+        <v>0.02018090787864654</v>
+      </c>
+      <c r="I69">
+        <v>-0.0154363456544972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.05248309495917264</v>
+        <v>0.0624859420675124</v>
       </c>
       <c r="C71">
-        <v>-0.2547834845268093</v>
+        <v>0.2635605971362112</v>
       </c>
       <c r="D71">
-        <v>0.1557007209377159</v>
+        <v>-0.02279104892844551</v>
       </c>
       <c r="E71">
-        <v>-0.07120327065042413</v>
+        <v>-0.04341797162811689</v>
       </c>
       <c r="F71">
-        <v>-0.08345521829247461</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06974411661792357</v>
+      </c>
+      <c r="G71">
+        <v>0.0294235859333763</v>
+      </c>
+      <c r="H71">
+        <v>0.01998281533509544</v>
+      </c>
+      <c r="I71">
+        <v>-0.03070405515128344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1341666804711121</v>
+        <v>0.1318950161020993</v>
       </c>
       <c r="C72">
-        <v>-0.03287803022585928</v>
+        <v>-0.03985301876893392</v>
       </c>
       <c r="D72">
-        <v>-0.05272914708642509</v>
+        <v>-0.009377538607596443</v>
       </c>
       <c r="E72">
-        <v>-0.0005932570867553911</v>
+        <v>0.07370762999099376</v>
       </c>
       <c r="F72">
-        <v>-0.07335825361401301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.07734711313671389</v>
+      </c>
+      <c r="G72">
+        <v>-0.06568124937730209</v>
+      </c>
+      <c r="H72">
+        <v>-0.02688121820434336</v>
+      </c>
+      <c r="I72">
+        <v>0.1397653266115008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2714430431142316</v>
+        <v>0.2678701530476858</v>
       </c>
       <c r="C73">
-        <v>-0.1178162797590172</v>
+        <v>0.07137276568088534</v>
       </c>
       <c r="D73">
-        <v>0.05942199081916594</v>
+        <v>-0.08884242635337493</v>
       </c>
       <c r="E73">
-        <v>-0.1099673184940645</v>
+        <v>-0.03862670674327989</v>
       </c>
       <c r="F73">
-        <v>-0.2965026481870267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2825858525665444</v>
+      </c>
+      <c r="G73">
+        <v>-0.5261692078693772</v>
+      </c>
+      <c r="H73">
+        <v>-0.04967845384449888</v>
+      </c>
+      <c r="I73">
+        <v>0.08612795318754696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1508113583035164</v>
+        <v>0.1483737952705693</v>
       </c>
       <c r="C74">
-        <v>-0.001268337077179908</v>
+        <v>-0.04110322496406701</v>
       </c>
       <c r="D74">
-        <v>-0.03997338865020991</v>
+        <v>-0.0110737822968518</v>
       </c>
       <c r="E74">
-        <v>-0.002534461951215277</v>
+        <v>0.0491807705100662</v>
       </c>
       <c r="F74">
-        <v>0.05152551458623431</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06826873705606684</v>
+      </c>
+      <c r="G74">
+        <v>-0.02476424067918927</v>
+      </c>
+      <c r="H74">
+        <v>-0.01830071121824228</v>
+      </c>
+      <c r="I74">
+        <v>-0.08371538706629243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2287402717514307</v>
+        <v>0.2502361832153229</v>
       </c>
       <c r="C75">
-        <v>-0.03824056660138657</v>
+        <v>-0.03618718791780524</v>
       </c>
       <c r="D75">
-        <v>-0.08793052230577821</v>
+        <v>-0.02973227651731418</v>
       </c>
       <c r="E75">
-        <v>-0.008364393123553355</v>
+        <v>0.1147945283183875</v>
       </c>
       <c r="F75">
-        <v>0.1416967951435087</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1424140368164624</v>
+      </c>
+      <c r="G75">
+        <v>-0.01416407574491137</v>
+      </c>
+      <c r="H75">
+        <v>0.01770233083360285</v>
+      </c>
+      <c r="I75">
+        <v>-0.04115222884103486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2540395398165894</v>
+        <v>0.2635086320760574</v>
       </c>
       <c r="C76">
-        <v>-0.07016171120912007</v>
+        <v>-0.02673057950779249</v>
       </c>
       <c r="D76">
-        <v>-0.07931206556991369</v>
+        <v>0.008489373734859734</v>
       </c>
       <c r="E76">
-        <v>0.05841695883301518</v>
+        <v>0.1354247963388319</v>
       </c>
       <c r="F76">
-        <v>0.1379114542041498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1805875014366674</v>
+      </c>
+      <c r="G76">
+        <v>-0.02162181200218754</v>
+      </c>
+      <c r="H76">
+        <v>-0.0673011638150717</v>
+      </c>
+      <c r="I76">
+        <v>-0.05596809283882564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1359741389760596</v>
+        <v>0.1147926524612982</v>
       </c>
       <c r="C77">
-        <v>0.06720982194805927</v>
+        <v>-0.0755955838215267</v>
       </c>
       <c r="D77">
-        <v>-0.01536588701876803</v>
+        <v>-0.009211527201792661</v>
       </c>
       <c r="E77">
-        <v>-0.01567627411246773</v>
+        <v>-0.04685996035432603</v>
       </c>
       <c r="F77">
-        <v>-0.1719943959550861</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1709428067865115</v>
+      </c>
+      <c r="G77">
+        <v>0.2105175570399509</v>
+      </c>
+      <c r="H77">
+        <v>-0.01583069236360773</v>
+      </c>
+      <c r="I77">
+        <v>-0.2414653285906361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.087995452846612</v>
+        <v>0.06669567693560469</v>
       </c>
       <c r="C78">
-        <v>0.06045739884247196</v>
+        <v>-0.06955927387670605</v>
       </c>
       <c r="D78">
-        <v>-0.04425156847731289</v>
+        <v>0.002272158729177726</v>
       </c>
       <c r="E78">
-        <v>0.007489674584486754</v>
+        <v>0.01203941427315295</v>
       </c>
       <c r="F78">
-        <v>-0.04919229045919713</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07573581945843867</v>
+      </c>
+      <c r="G78">
+        <v>0.02149782405674194</v>
+      </c>
+      <c r="H78">
+        <v>0.01942628269958383</v>
+      </c>
+      <c r="I78">
+        <v>-0.03054926919639863</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1109853844704153</v>
+        <v>0.1436740631761453</v>
       </c>
       <c r="C80">
-        <v>0.05505016192120069</v>
+        <v>0.04867411589027353</v>
       </c>
       <c r="D80">
-        <v>0.2991653534482484</v>
+        <v>0.974731981216074</v>
       </c>
       <c r="E80">
-        <v>0.9214240315552399</v>
+        <v>-0.05231815113604458</v>
       </c>
       <c r="F80">
-        <v>-0.07959540689661712</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04604608653798653</v>
+      </c>
+      <c r="G80">
+        <v>-0.03427448226148853</v>
+      </c>
+      <c r="H80">
+        <v>0.03087700721427888</v>
+      </c>
+      <c r="I80">
+        <v>0.09458921331783475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1536446047094001</v>
+        <v>0.1819419796703866</v>
       </c>
       <c r="C81">
-        <v>-0.03008568924555425</v>
+        <v>-0.01811838008230799</v>
       </c>
       <c r="D81">
-        <v>-0.04862288979310037</v>
+        <v>-0.007011944500516027</v>
       </c>
       <c r="E81">
-        <v>0.01566411952680423</v>
+        <v>0.09137389374743003</v>
       </c>
       <c r="F81">
-        <v>0.1772611992826854</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1565315789064498</v>
+      </c>
+      <c r="G81">
+        <v>0.01317339893787952</v>
+      </c>
+      <c r="H81">
+        <v>-0.0264812820424424</v>
+      </c>
+      <c r="I81">
+        <v>-0.004582988203234125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.08427794955120432</v>
+        <v>0.06507912520708413</v>
       </c>
       <c r="C83">
-        <v>0.08949908611035919</v>
+        <v>-0.05468511754681302</v>
       </c>
       <c r="D83">
-        <v>-0.01952725449128024</v>
+        <v>-0.01042860013789207</v>
       </c>
       <c r="E83">
-        <v>-0.02088106042985616</v>
+        <v>-0.02163807915416233</v>
       </c>
       <c r="F83">
-        <v>-0.01965378840167714</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.0475419266600369</v>
+      </c>
+      <c r="G83">
+        <v>0.03752664671317018</v>
+      </c>
+      <c r="H83">
+        <v>0.05871209235409074</v>
+      </c>
+      <c r="I83">
+        <v>-0.0415653237739393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.242687775552496</v>
+        <v>0.2526822778718114</v>
       </c>
       <c r="C85">
-        <v>0.005257235077458341</v>
+        <v>-0.06759382282455749</v>
       </c>
       <c r="D85">
-        <v>-0.08927067517362601</v>
+        <v>-0.01066136255705236</v>
       </c>
       <c r="E85">
-        <v>0.05478238624470162</v>
+        <v>0.1101417426502842</v>
       </c>
       <c r="F85">
-        <v>0.1584898242111708</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1808253163325325</v>
+      </c>
+      <c r="G85">
+        <v>0.02406653367582584</v>
+      </c>
+      <c r="H85">
+        <v>-0.01825042424587318</v>
+      </c>
+      <c r="I85">
+        <v>-0.07601148520136403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04068683347355651</v>
+        <v>0.02854542206021457</v>
       </c>
       <c r="C86">
-        <v>0.04368517276334451</v>
+        <v>-0.05396547148558075</v>
       </c>
       <c r="D86">
-        <v>-0.04687902302946421</v>
+        <v>-0.003139177619567658</v>
       </c>
       <c r="E86">
-        <v>-0.00710621531914815</v>
+        <v>0.01178632592593309</v>
       </c>
       <c r="F86">
-        <v>-0.07226445541363448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08011801359688461</v>
+      </c>
+      <c r="G86">
+        <v>0.05806535693505298</v>
+      </c>
+      <c r="H86">
+        <v>0.0120339313722908</v>
+      </c>
+      <c r="I86">
+        <v>-0.0548515690523968</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0206307068331766</v>
+        <v>0.02653752284022293</v>
       </c>
       <c r="C87">
-        <v>-0.03294340173785756</v>
+        <v>0.005067235412235378</v>
       </c>
       <c r="D87">
-        <v>0.01774186613998014</v>
+        <v>0.003406739387715992</v>
       </c>
       <c r="E87">
-        <v>-0.006930820094037862</v>
+        <v>-0.003047012957501307</v>
       </c>
       <c r="F87">
-        <v>-0.09992156194991736</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1094039355330577</v>
+      </c>
+      <c r="G87">
+        <v>0.02144334619297539</v>
+      </c>
+      <c r="H87">
+        <v>-0.01597712658183571</v>
+      </c>
+      <c r="I87">
+        <v>-0.03486694281458384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02757366266120422</v>
+        <v>0.03411787067216753</v>
       </c>
       <c r="C88">
-        <v>0.01157412821018349</v>
+        <v>-0.006336610543098242</v>
       </c>
       <c r="D88">
-        <v>-0.01751223372480818</v>
+        <v>0.004920487166731257</v>
       </c>
       <c r="E88">
-        <v>0.02446871223524178</v>
+        <v>0.01125919212281743</v>
       </c>
       <c r="F88">
-        <v>0.03157668714678617</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02161706371778307</v>
+      </c>
+      <c r="G88">
+        <v>0.03603480883108554</v>
+      </c>
+      <c r="H88">
+        <v>0.04665292107014997</v>
+      </c>
+      <c r="I88">
+        <v>0.002918921140632332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07275922184319863</v>
+        <v>0.1019977467646383</v>
       </c>
       <c r="C89">
-        <v>-0.2852774549655936</v>
+        <v>0.3830648934388712</v>
       </c>
       <c r="D89">
-        <v>0.2328286706692071</v>
+        <v>-0.05119550208990294</v>
       </c>
       <c r="E89">
-        <v>-0.09402673288109559</v>
+        <v>-0.05740921185713031</v>
       </c>
       <c r="F89">
-        <v>-0.03024022196019646</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.04098134939148775</v>
+      </c>
+      <c r="G89">
+        <v>0.08772613183763237</v>
+      </c>
+      <c r="H89">
+        <v>0.0392727756329215</v>
+      </c>
+      <c r="I89">
+        <v>-0.0692706740996181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.05513619022067299</v>
+        <v>0.06449143905145413</v>
       </c>
       <c r="C90">
-        <v>-0.2542670100047057</v>
+        <v>0.3383026764886011</v>
       </c>
       <c r="D90">
-        <v>0.2104883351917707</v>
+        <v>-0.02552184583546002</v>
       </c>
       <c r="E90">
-        <v>-0.03269362059266686</v>
+        <v>-0.05611605870256779</v>
       </c>
       <c r="F90">
-        <v>-0.06134339214716755</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03013862769703629</v>
+      </c>
+      <c r="G90">
+        <v>0.06568399727598165</v>
+      </c>
+      <c r="H90">
+        <v>0.02109438732517921</v>
+      </c>
+      <c r="I90">
+        <v>-0.04496231685851807</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2789297087722958</v>
+        <v>0.2894696871826068</v>
       </c>
       <c r="C91">
-        <v>0.005953687705871127</v>
+        <v>-0.07547416193840883</v>
       </c>
       <c r="D91">
-        <v>-0.0906161998764192</v>
+        <v>-0.01732041976579952</v>
       </c>
       <c r="E91">
-        <v>0.03961631427310484</v>
+        <v>0.1056435706387412</v>
       </c>
       <c r="F91">
-        <v>0.2709842455457973</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2629874138057833</v>
+      </c>
+      <c r="G91">
+        <v>-0.002099970935914097</v>
+      </c>
+      <c r="H91">
+        <v>-0.05206396108150803</v>
+      </c>
+      <c r="I91">
+        <v>-0.06968066442111129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.09615934844377798</v>
+        <v>0.1444802381773855</v>
       </c>
       <c r="C92">
-        <v>-0.230637895861431</v>
+        <v>0.3690340493760155</v>
       </c>
       <c r="D92">
-        <v>0.2811150451737532</v>
+        <v>-0.01366315269845259</v>
       </c>
       <c r="E92">
-        <v>-0.02769471466512054</v>
+        <v>-0.08597126088950768</v>
       </c>
       <c r="F92">
-        <v>0.1077332566276352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1204242398997048</v>
+      </c>
+      <c r="G92">
+        <v>0.3218776489253061</v>
+      </c>
+      <c r="H92">
+        <v>-0.01611157593998331</v>
+      </c>
+      <c r="I92">
+        <v>0.06602568287303263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05229247787209027</v>
+        <v>0.0840834324113528</v>
       </c>
       <c r="C93">
-        <v>-0.3010526382162198</v>
+        <v>0.4003680403534933</v>
       </c>
       <c r="D93">
-        <v>0.2493179738154</v>
+        <v>-0.04014533735992313</v>
       </c>
       <c r="E93">
-        <v>-0.04695258404981399</v>
+        <v>-0.0881587826356884</v>
       </c>
       <c r="F93">
-        <v>0.01170583717688685</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.006342055432266307</v>
+      </c>
+      <c r="G93">
+        <v>0.02962679338075091</v>
+      </c>
+      <c r="H93">
+        <v>0.05212452040320716</v>
+      </c>
+      <c r="I93">
+        <v>0.01115839560914234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2832634355129836</v>
+        <v>0.313823174256015</v>
       </c>
       <c r="C94">
-        <v>-0.08914159042924137</v>
+        <v>0.02207258019937582</v>
       </c>
       <c r="D94">
-        <v>0.008905572282578361</v>
+        <v>-0.04669969427884966</v>
       </c>
       <c r="E94">
-        <v>0.0006184675431580094</v>
+        <v>0.1126437832263362</v>
       </c>
       <c r="F94">
-        <v>0.3192269681871752</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2984262798446418</v>
+      </c>
+      <c r="G94">
+        <v>0.08001157062111462</v>
+      </c>
+      <c r="H94">
+        <v>-0.2153915299581923</v>
+      </c>
+      <c r="I94">
+        <v>-0.01240086382916884</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1659690475475258</v>
+        <v>0.1311356381318532</v>
       </c>
       <c r="C95">
-        <v>0.06290166305786137</v>
+        <v>-0.06430517212191686</v>
       </c>
       <c r="D95">
-        <v>-0.04592887997623647</v>
+        <v>-0.0795859875836382</v>
       </c>
       <c r="E95">
-        <v>-0.06822489813713563</v>
+        <v>0.02928585638380479</v>
       </c>
       <c r="F95">
-        <v>0.3900435405020147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1068582352024948</v>
+      </c>
+      <c r="G95">
+        <v>0.04468780574864802</v>
+      </c>
+      <c r="H95">
+        <v>0.8778497953673938</v>
+      </c>
+      <c r="I95">
+        <v>0.3472316380285377</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2060076587977941</v>
+        <v>0.2078141395609458</v>
       </c>
       <c r="C98">
-        <v>-0.06783822872074102</v>
+        <v>0.05875559096321912</v>
       </c>
       <c r="D98">
-        <v>0.04536942163669488</v>
+        <v>-0.06340280276094813</v>
       </c>
       <c r="E98">
-        <v>-0.090370502218096</v>
+        <v>-0.02834935076107904</v>
       </c>
       <c r="F98">
-        <v>-0.07749847544908392</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.165261140493552</v>
+      </c>
+      <c r="G98">
+        <v>-0.3645895415552038</v>
+      </c>
+      <c r="H98">
+        <v>-0.01158375602017182</v>
+      </c>
+      <c r="I98">
+        <v>0.100312770302936</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.03047881030050649</v>
+        <v>0.01723255930593188</v>
       </c>
       <c r="C101">
-        <v>0.01385855055565837</v>
+        <v>-0.03354221263202346</v>
       </c>
       <c r="D101">
-        <v>-0.0406596292922325</v>
+        <v>0.004461749506696281</v>
       </c>
       <c r="E101">
-        <v>0.01700613982272015</v>
+        <v>0.03664450172558436</v>
       </c>
       <c r="F101">
-        <v>-0.02348766071968961</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06705985395160328</v>
+      </c>
+      <c r="G101">
+        <v>0.1115058483642049</v>
+      </c>
+      <c r="H101">
+        <v>-0.02333353870633221</v>
+      </c>
+      <c r="I101">
+        <v>0.1197149467646368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09823301065811912</v>
+        <v>0.1180425382047716</v>
       </c>
       <c r="C102">
-        <v>0.003653739452265355</v>
+        <v>-0.03041645615573802</v>
       </c>
       <c r="D102">
-        <v>-0.05502022749266956</v>
+        <v>0.003818956206071707</v>
       </c>
       <c r="E102">
-        <v>0.03985751273144122</v>
+        <v>0.05329294781511498</v>
       </c>
       <c r="F102">
-        <v>0.09545719204608148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1118838964843085</v>
+      </c>
+      <c r="G102">
+        <v>0.006370062291552119</v>
+      </c>
+      <c r="H102">
+        <v>0.0002613195518538931</v>
+      </c>
+      <c r="I102">
+        <v>-0.04551941588032762</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.0200101364793547</v>
+        <v>0.02854035108632598</v>
       </c>
       <c r="C103">
-        <v>0.003441090394441717</v>
+        <v>-0.01157337542625909</v>
       </c>
       <c r="D103">
-        <v>-0.01621479602733807</v>
+        <v>0.00881686893908256</v>
       </c>
       <c r="E103">
-        <v>0.006352382335875732</v>
+        <v>0.01899767356715624</v>
       </c>
       <c r="F103">
-        <v>0.03448996985752453</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02558821487485122</v>
+      </c>
+      <c r="G103">
+        <v>0.01851990552387467</v>
+      </c>
+      <c r="H103">
+        <v>0.006481961135959335</v>
+      </c>
+      <c r="I103">
+        <v>-0.01415329839355565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
